--- a/相机相关/崔景涛的相机数据计算.xlsx
+++ b/相机相关/崔景涛的相机数据计算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="14175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>T1</t>
   </si>
@@ -66,6 +66,15 @@
   <si>
     <t>128*128</t>
   </si>
+  <si>
+    <t>A0h</t>
+  </si>
+  <si>
+    <t>80h</t>
+  </si>
+  <si>
+    <t>(3,3)</t>
+  </si>
 </sst>
 </file>
 
@@ -77,13 +86,18 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -230,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +253,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -424,7 +444,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -434,16 +454,136 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,55 +705,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,79 +765,124 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1013,10 +1195,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:P12"/>
+  <dimension ref="B3:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1081,44 +1263,196 @@
       </c>
     </row>
     <row r="8" spans="15:16">
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="15:16">
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="12">
         <v>134.7256358</v>
       </c>
     </row>
     <row r="10" spans="15:16">
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="12">
         <v>258.789518</v>
       </c>
     </row>
     <row r="11" spans="15:16">
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="12">
         <v>479.623205</v>
       </c>
     </row>
     <row r="12" spans="15:16">
-      <c r="O12" s="1" t="s">
+      <c r="O12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="12">
         <v>836.5520591</v>
       </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="3:11">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>160</v>
+      </c>
+      <c r="E14" s="1">
+        <v>320</v>
+      </c>
+      <c r="F14" s="1">
+        <v>480</v>
+      </c>
+      <c r="G14" s="1">
+        <v>640</v>
+      </c>
+      <c r="H14" s="1">
+        <v>800</v>
+      </c>
+      <c r="I14" s="1">
+        <v>960</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1120</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="2:11">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <v>128</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" ht="14.25" spans="3:11">
+      <c r="C16" s="5">
+        <v>256</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" ht="14.25" spans="3:11">
+      <c r="C17" s="5">
+        <v>384</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" ht="14.25" spans="3:11">
+      <c r="C18" s="5">
+        <v>512</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" ht="14.25" spans="3:11">
+      <c r="C19" s="5">
+        <v>640</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" ht="14.25" spans="3:11">
+      <c r="C20" s="5">
+        <v>768</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" ht="14.25" spans="3:11">
+      <c r="C21" s="5">
+        <v>896</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" ht="14.25" spans="3:11">
+      <c r="C22" s="9">
+        <v>1024</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" ht="14.25" spans="3:11">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
